--- a/src/resources/dataTest.xlsx
+++ b/src/resources/dataTest.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_Conando\workdo\src\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_Conando\fastdo_system\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,15 @@
     <sheet name="Tạo OKRs" sheetId="8" r:id="rId8"/>
     <sheet name="Cấu hình - Phòng ban" sheetId="9" r:id="rId9"/>
     <sheet name="Cấu hình - Nhân sự" sheetId="10" r:id="rId10"/>
-    <sheet name="Cấu hình - Sửa Nhân sự" sheetId="11" r:id="rId11"/>
+    <sheet name="góp ý hệ thống" sheetId="12" r:id="rId11"/>
+    <sheet name="Cấu hình - Sửa Nhân sự" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="46">
   <si>
     <t>TCID</t>
   </si>
@@ -161,6 +162,12 @@
   </si>
   <si>
     <t>email1@gmail.com</t>
+  </si>
+  <si>
+    <t>Tôi cần góp ý cái này dây</t>
+  </si>
+  <si>
+    <t>Tôi cần góp ý cái này đây</t>
   </si>
 </sst>
 </file>
@@ -651,7 +658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -775,6 +782,59 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>

--- a/src/resources/dataTest.xlsx
+++ b/src/resources/dataTest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -663,6 +663,11 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -785,7 +790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -838,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1776,10 +1781,15 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
